--- a/output/data/ene_final_CAENES_1d.xlsx
+++ b/output/data/ene_final_CAENES_1d.xlsx
@@ -534,7 +534,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -651,7 +651,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -930,37 +930,37 @@
         </is>
       </c>
       <c r="C15">
-        <v>79023.46784889806</v>
+        <v>722868.3415958595</v>
       </c>
       <c r="D15">
-        <v>27.349</v>
+        <v>71.247</v>
       </c>
       <c r="E15">
-        <v>32.73694495605073</v>
+        <v>43.43334973716274</v>
       </c>
       <c r="F15">
-        <v>34.982</v>
+        <v>32.635</v>
       </c>
       <c r="G15">
-        <v>39.282</v>
+        <v>8.718999999999999</v>
       </c>
       <c r="H15">
-        <v>46.215</v>
+        <v>57.611</v>
       </c>
       <c r="I15">
-        <v>28.399</v>
+        <v>6.05</v>
       </c>
       <c r="J15">
-        <v>4.763462926058101</v>
+        <v>5.623632311183862</v>
       </c>
       <c r="K15">
-        <v>54.012</v>
+        <v>64.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -969,31 +969,28 @@
         </is>
       </c>
       <c r="C16">
-        <v>646419.4582309162</v>
+        <v>2574.58448395478</v>
       </c>
       <c r="D16">
-        <v>76.506</v>
+        <v>44.375</v>
       </c>
       <c r="E16">
-        <v>44.71217004308895</v>
-      </c>
-      <c r="F16">
-        <v>32.218</v>
+        <v>36.20396180932696</v>
       </c>
       <c r="G16">
-        <v>5.218</v>
+        <v>68.04300000000001</v>
       </c>
       <c r="H16">
-        <v>59.027</v>
+        <v>63.355</v>
       </c>
       <c r="I16">
-        <v>3.511</v>
+        <v>54.543</v>
       </c>
       <c r="J16">
-        <v>5.717018901834373</v>
+        <v>2.66911345069883</v>
       </c>
       <c r="K16">
-        <v>65.59999999999999</v>
+        <v>71.92</v>
       </c>
     </row>
     <row r="17">
@@ -1014,7 +1011,7 @@
         <v>38.63</v>
       </c>
       <c r="E17">
-        <v>39.59267471840174</v>
+        <v>39.73855448822508</v>
       </c>
       <c r="F17">
         <v>23.728</v>
@@ -1029,7 +1026,7 @@
         <v>39.545</v>
       </c>
       <c r="J17">
-        <v>5.836544327580386</v>
+        <v>5.690695256513068</v>
       </c>
       <c r="K17">
         <v>82.82899999999999</v>
@@ -1155,7 +1152,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1272,7 +1269,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1389,7 +1386,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1545,7 +1542,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1554,37 +1551,37 @@
         </is>
       </c>
       <c r="C31">
-        <v>71895.51595208432</v>
+        <v>767966.6091438441</v>
       </c>
       <c r="D31">
-        <v>32.576</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="E31">
-        <v>34.80243211767325</v>
+        <v>44.58761596695263</v>
       </c>
       <c r="F31">
-        <v>29.206</v>
+        <v>29.472</v>
       </c>
       <c r="G31">
-        <v>48.766</v>
+        <v>8.922000000000001</v>
       </c>
       <c r="H31">
-        <v>54.011</v>
+        <v>60.645</v>
       </c>
       <c r="I31">
-        <v>30.57</v>
+        <v>6.148</v>
       </c>
       <c r="J31">
-        <v>4.494676892895831</v>
+        <v>5.61223235570472</v>
       </c>
       <c r="K31">
-        <v>62.152</v>
+        <v>67.53100000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,31 +1590,28 @@
         </is>
       </c>
       <c r="C32">
-        <v>698192.8076618378</v>
+        <v>2121.714470077975</v>
       </c>
       <c r="D32">
-        <v>76.96899999999999</v>
+        <v>63.785</v>
       </c>
       <c r="E32">
-        <v>45.60253547745265</v>
-      </c>
-      <c r="F32">
-        <v>29.41</v>
+        <v>46.99070136263129</v>
       </c>
       <c r="G32">
-        <v>4.975</v>
+        <v>60.212</v>
       </c>
       <c r="H32">
-        <v>61.44</v>
+        <v>97.706</v>
       </c>
       <c r="I32">
-        <v>3.795</v>
+        <v>59.462</v>
       </c>
       <c r="J32">
-        <v>5.732647098940991</v>
+        <v>7.368114738954834</v>
       </c>
       <c r="K32">
-        <v>68.18300000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1638,7 +1632,7 @@
         <v>39.397</v>
       </c>
       <c r="E33">
-        <v>39.87902112067902</v>
+        <v>40.62391110297622</v>
       </c>
       <c r="F33">
         <v>22.449</v>
@@ -1653,7 +1647,7 @@
         <v>39.805</v>
       </c>
       <c r="J33">
-        <v>5.652708692724143</v>
+        <v>5.836243566245659</v>
       </c>
       <c r="K33">
         <v>83.837</v>
@@ -1779,7 +1773,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1896,7 +1890,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2013,7 +2007,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2169,7 +2163,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2178,37 +2172,37 @@
         </is>
       </c>
       <c r="C47">
-        <v>77997.04703493747</v>
+        <v>729429.3514179224</v>
       </c>
       <c r="D47">
-        <v>41.2</v>
+        <v>75.68300000000001</v>
       </c>
       <c r="E47">
-        <v>35.21089706607364</v>
+        <v>44.80379179463692</v>
       </c>
       <c r="F47">
-        <v>28.126</v>
+        <v>30.958</v>
       </c>
       <c r="G47">
-        <v>38.031</v>
+        <v>7.645</v>
       </c>
       <c r="H47">
-        <v>54.211</v>
+        <v>59.602</v>
       </c>
       <c r="I47">
-        <v>31.945</v>
+        <v>6.627</v>
       </c>
       <c r="J47">
-        <v>4.813941282200576</v>
+        <v>5.54562362824567</v>
       </c>
       <c r="K47">
-        <v>67.652</v>
+        <v>64.553</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2217,31 +2211,28 @@
         </is>
       </c>
       <c r="C48">
-        <v>653348.8444914499</v>
+        <v>1916.540108464908</v>
       </c>
       <c r="D48">
-        <v>79.76900000000001</v>
+        <v>65.26600000000001</v>
       </c>
       <c r="E48">
-        <v>45.94054980981686</v>
-      </c>
-      <c r="F48">
-        <v>31.206</v>
+        <v>41.92468395004806</v>
       </c>
       <c r="G48">
-        <v>4.132</v>
+        <v>46.469</v>
       </c>
       <c r="H48">
-        <v>60.329</v>
+        <v>88.354</v>
       </c>
       <c r="I48">
-        <v>3.769</v>
+        <v>62.55</v>
       </c>
       <c r="J48">
-        <v>5.640399088203475</v>
+        <v>8.077464662531003</v>
       </c>
       <c r="K48">
-        <v>64.233</v>
+        <v>81.44</v>
       </c>
     </row>
     <row r="49">
@@ -2262,7 +2253,7 @@
         <v>39.526</v>
       </c>
       <c r="E49">
-        <v>40.01812992553493</v>
+        <v>40.38993185012123</v>
       </c>
       <c r="F49">
         <v>22.132</v>
@@ -2277,7 +2268,7 @@
         <v>42.678</v>
       </c>
       <c r="J49">
-        <v>5.680314979696358</v>
+        <v>5.891564841054532</v>
       </c>
       <c r="K49">
         <v>83.334</v>
@@ -2403,7 +2394,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2520,7 +2511,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2637,7 +2628,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2793,7 +2784,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2802,37 +2793,37 @@
         </is>
       </c>
       <c r="C63">
-        <v>86710.95296084168</v>
+        <v>740682.9000341403</v>
       </c>
       <c r="D63">
-        <v>32.231</v>
+        <v>72.617</v>
       </c>
       <c r="E63">
-        <v>34.35005556844482</v>
+        <v>45.11333319933395</v>
       </c>
       <c r="F63">
-        <v>28.751</v>
+        <v>30.539</v>
       </c>
       <c r="G63">
-        <v>65.074</v>
+        <v>11.146</v>
       </c>
       <c r="H63">
-        <v>58.148</v>
+        <v>58.919</v>
       </c>
       <c r="I63">
-        <v>29.508</v>
+        <v>6.187</v>
       </c>
       <c r="J63">
-        <v>5.453734672213496</v>
+        <v>5.944428224247003</v>
       </c>
       <c r="K63">
-        <v>69.121</v>
+        <v>66.864</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2841,31 +2832,28 @@
         </is>
       </c>
       <c r="C64">
-        <v>657248.8569694861</v>
+        <v>3276.909896187492</v>
       </c>
       <c r="D64">
-        <v>77.87</v>
+        <v>57.478</v>
       </c>
       <c r="E64">
-        <v>46.50955721374265</v>
-      </c>
-      <c r="F64">
-        <v>30.623</v>
+        <v>40.34438217287427</v>
       </c>
       <c r="G64">
-        <v>4.328</v>
+        <v>70.473</v>
       </c>
       <c r="H64">
-        <v>59.006</v>
+        <v>56.125</v>
       </c>
       <c r="I64">
-        <v>3.361</v>
+        <v>56.541</v>
       </c>
       <c r="J64">
-        <v>6.011362234538919</v>
+        <v>6.385025095665147</v>
       </c>
       <c r="K64">
-        <v>66.66800000000001</v>
+        <v>87.27200000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2886,7 +2874,7 @@
         <v>40.094</v>
       </c>
       <c r="E65">
-        <v>40.59941816372078</v>
+        <v>40.90595833638884</v>
       </c>
       <c r="F65">
         <v>22.985</v>
@@ -2901,7 +2889,7 @@
         <v>41.96</v>
       </c>
       <c r="J65">
-        <v>6.046093428547008</v>
+        <v>6.103717189424323</v>
       </c>
       <c r="K65">
         <v>82.88800000000001</v>
@@ -3027,7 +3015,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3144,7 +3132,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3261,7 +3249,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3417,7 +3405,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3426,37 +3414,37 @@
         </is>
       </c>
       <c r="C79">
-        <v>81535.87278341119</v>
+        <v>731477.9944147074</v>
       </c>
       <c r="D79">
-        <v>32.695</v>
+        <v>73.06</v>
       </c>
       <c r="E79">
-        <v>35.09125123777169</v>
+        <v>45.57726092856868</v>
       </c>
       <c r="F79">
-        <v>31.682</v>
+        <v>29.165</v>
       </c>
       <c r="G79">
-        <v>50.778</v>
+        <v>9.872</v>
       </c>
       <c r="H79">
-        <v>50.885</v>
+        <v>60.823</v>
       </c>
       <c r="I79">
-        <v>34.151</v>
+        <v>7.911</v>
       </c>
       <c r="J79">
-        <v>5.373653142301889</v>
+        <v>5.94333646036294</v>
       </c>
       <c r="K79">
-        <v>65.557</v>
+        <v>65.914</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3465,31 +3453,28 @@
         </is>
       </c>
       <c r="C80">
-        <v>650976.2140880275</v>
+        <v>1034.092456731289</v>
       </c>
       <c r="D80">
-        <v>78.134</v>
+        <v>84.908</v>
       </c>
       <c r="E80">
-        <v>46.89371962468595</v>
-      </c>
-      <c r="F80">
-        <v>28.804</v>
+        <v>47.50875731870244</v>
       </c>
       <c r="G80">
-        <v>4.779</v>
+        <v>29.441</v>
       </c>
       <c r="H80">
-        <v>62.106</v>
+        <v>84.854</v>
       </c>
       <c r="I80">
-        <v>4.77</v>
+        <v>100</v>
       </c>
       <c r="J80">
-        <v>6.018539633801727</v>
+        <v>8.366572959205735</v>
       </c>
       <c r="K80">
-        <v>66.01300000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -3510,7 +3495,7 @@
         <v>40.215</v>
       </c>
       <c r="E81">
-        <v>40.56765093987386</v>
+        <v>41.3077207655281</v>
       </c>
       <c r="F81">
         <v>23.558</v>
@@ -3525,7 +3510,7 @@
         <v>41.862</v>
       </c>
       <c r="J81">
-        <v>5.888435716469873</v>
+        <v>6.082950159367544</v>
       </c>
       <c r="K81">
         <v>83.074</v>
@@ -3651,7 +3636,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3768,7 +3753,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3885,7 +3870,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4041,7 +4026,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4050,37 +4035,37 @@
         </is>
       </c>
       <c r="C95">
-        <v>68146.25549253156</v>
+        <v>668564.3980730547</v>
       </c>
       <c r="D95">
-        <v>37.436</v>
+        <v>74.07899999999999</v>
       </c>
       <c r="E95">
-        <v>36.88011737545419</v>
+        <v>46.7295888940445</v>
       </c>
       <c r="F95">
-        <v>32.877</v>
+        <v>25.858</v>
       </c>
       <c r="G95">
-        <v>49.014</v>
+        <v>9.455</v>
       </c>
       <c r="H95">
-        <v>47.077</v>
+        <v>64.476</v>
       </c>
       <c r="I95">
-        <v>36.632</v>
+        <v>7.126</v>
       </c>
       <c r="J95">
-        <v>5.210376358143372</v>
+        <v>5.808815176889641</v>
       </c>
       <c r="K95">
-        <v>68.21899999999999</v>
+        <v>70.383</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4089,31 +4074,28 @@
         </is>
       </c>
       <c r="C96">
-        <v>602840.3939461452</v>
+        <v>2422.251365622006</v>
       </c>
       <c r="D96">
-        <v>78.095</v>
+        <v>42.742</v>
       </c>
       <c r="E96">
-        <v>47.83883134308761</v>
-      </c>
-      <c r="F96">
-        <v>24.96</v>
+        <v>45.69400371699194</v>
       </c>
       <c r="G96">
-        <v>5.167</v>
+        <v>55.011</v>
       </c>
       <c r="H96">
-        <v>66.56100000000001</v>
+        <v>93.851</v>
       </c>
       <c r="I96">
-        <v>3.866</v>
+        <v>25.892</v>
       </c>
       <c r="J96">
-        <v>5.880599537957663</v>
+        <v>6.838084022341369</v>
       </c>
       <c r="K96">
-        <v>70.72199999999999</v>
+        <v>93.851</v>
       </c>
     </row>
     <row r="97">
@@ -4134,7 +4116,7 @@
         <v>40.419</v>
       </c>
       <c r="E97">
-        <v>41.04215817319395</v>
+        <v>41.55580109936026</v>
       </c>
       <c r="F97">
         <v>23.378</v>
@@ -4149,7 +4131,7 @@
         <v>41.886</v>
       </c>
       <c r="J97">
-        <v>5.700619818634553</v>
+        <v>5.804348038843218</v>
       </c>
       <c r="K97">
         <v>83.79000000000001</v>
@@ -4275,7 +4257,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4392,7 +4374,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4509,7 +4491,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4665,7 +4647,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4674,37 +4656,37 @@
         </is>
       </c>
       <c r="C111">
-        <v>85675.42145630617</v>
+        <v>690995.569793692</v>
       </c>
       <c r="D111">
-        <v>38.852</v>
+        <v>71.496</v>
       </c>
       <c r="E111">
-        <v>35.7100411728189</v>
+        <v>45.1172180464615</v>
       </c>
       <c r="F111">
-        <v>36.303</v>
+        <v>21.855</v>
       </c>
       <c r="G111">
-        <v>55.875</v>
+        <v>10.519</v>
       </c>
       <c r="H111">
-        <v>44.989</v>
+        <v>67.79900000000001</v>
       </c>
       <c r="I111">
-        <v>27.458</v>
+        <v>6.951</v>
       </c>
       <c r="J111">
-        <v>5.209677081476507</v>
+        <v>6.414328450327223</v>
       </c>
       <c r="K111">
-        <v>59.534</v>
+        <v>69.625</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4713,31 +4695,28 @@
         </is>
       </c>
       <c r="C112">
-        <v>606403.15628942</v>
+        <v>1083.007952034158</v>
       </c>
       <c r="D112">
-        <v>76.15600000000001</v>
+        <v>98.705</v>
       </c>
       <c r="E112">
-        <v>46.43795642547611</v>
-      </c>
-      <c r="F112">
-        <v>19.775</v>
+        <v>40.44142440450224</v>
       </c>
       <c r="G112">
-        <v>4.23</v>
+        <v>77.248</v>
       </c>
       <c r="H112">
-        <v>70.97799999999999</v>
+        <v>43.559</v>
       </c>
       <c r="I112">
-        <v>4.115</v>
+        <v>41.026</v>
       </c>
       <c r="J112">
-        <v>6.588501646195379</v>
+        <v>8.639761769387789</v>
       </c>
       <c r="K112">
-        <v>71.105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
@@ -4758,7 +4737,7 @@
         <v>40.696</v>
       </c>
       <c r="E113">
-        <v>41.26381636174381</v>
+        <v>41.49119268525506</v>
       </c>
       <c r="F113">
         <v>24.222</v>
@@ -4773,7 +4752,7 @@
         <v>40.748</v>
       </c>
       <c r="J113">
-        <v>6.098468582565466</v>
+        <v>6.315529348701673</v>
       </c>
       <c r="K113">
         <v>81.857</v>
@@ -4899,7 +4878,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5016,7 +4995,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5133,7 +5112,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5289,7 +5268,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5298,37 +5277,37 @@
         </is>
       </c>
       <c r="C127">
-        <v>96069.47236729937</v>
+        <v>730217.0869155917</v>
       </c>
       <c r="D127">
-        <v>41.892</v>
+        <v>71.508</v>
       </c>
       <c r="E127">
-        <v>34.52690779335067</v>
+        <v>44.99873051821902</v>
       </c>
       <c r="F127">
-        <v>25.419</v>
+        <v>21.459</v>
       </c>
       <c r="G127">
-        <v>51.35</v>
+        <v>10.969</v>
       </c>
       <c r="H127">
-        <v>52.977</v>
+        <v>66.64</v>
       </c>
       <c r="I127">
-        <v>40.431</v>
+        <v>9.257</v>
       </c>
       <c r="J127">
-        <v>4.965472276671568</v>
+        <v>5.946262875100936</v>
       </c>
       <c r="K127">
-        <v>70.381</v>
+        <v>68.917</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5337,31 +5316,28 @@
         </is>
       </c>
       <c r="C128">
-        <v>638516.7965222525</v>
+        <v>4369.181973960196</v>
       </c>
       <c r="D128">
-        <v>75.874</v>
+        <v>58.422</v>
       </c>
       <c r="E128">
-        <v>46.56121017565813</v>
-      </c>
-      <c r="F128">
-        <v>20.716</v>
+        <v>43.08693594143686</v>
       </c>
       <c r="G128">
-        <v>5.101</v>
+        <v>41.334</v>
       </c>
       <c r="H128">
-        <v>68.857</v>
+        <v>90.18600000000001</v>
       </c>
       <c r="I128">
-        <v>4.851</v>
+        <v>50.694</v>
       </c>
       <c r="J128">
-        <v>6.074871839535739</v>
+        <v>3.175709624834065</v>
       </c>
       <c r="K128">
-        <v>68.753</v>
+        <v>77.166</v>
       </c>
     </row>
     <row r="129">
@@ -5382,7 +5358,7 @@
         <v>40.792</v>
       </c>
       <c r="E129">
-        <v>41.47989029850037</v>
+        <v>41.94639353121017</v>
       </c>
       <c r="F129">
         <v>24.936</v>
@@ -5397,7 +5373,7 @@
         <v>40.095</v>
       </c>
       <c r="J129">
-        <v>6.065056037313837</v>
+        <v>5.937164596229016</v>
       </c>
       <c r="K129">
         <v>81.60599999999999</v>
@@ -5523,7 +5499,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5640,7 +5616,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5757,7 +5733,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5910,7 +5886,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5919,37 +5895,37 @@
         </is>
       </c>
       <c r="C143">
-        <v>98628.52673832583</v>
+        <v>706194.5280358862</v>
       </c>
       <c r="D143">
-        <v>31.222</v>
+        <v>69.75700000000001</v>
       </c>
       <c r="E143">
-        <v>36.69001584907571</v>
+        <v>45.94104659275887</v>
       </c>
       <c r="F143">
-        <v>41.915</v>
+        <v>23.649</v>
       </c>
       <c r="G143">
-        <v>60.652</v>
+        <v>13.212</v>
       </c>
       <c r="H143">
-        <v>45.997</v>
+        <v>65.771</v>
       </c>
       <c r="I143">
-        <v>28.055</v>
+        <v>8.315</v>
       </c>
       <c r="J143">
-        <v>6.826227387459976</v>
+        <v>6.084848949609335</v>
       </c>
       <c r="K143">
-        <v>68.017</v>
+        <v>67.327</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5958,31 +5934,28 @@
         </is>
       </c>
       <c r="C144">
-        <v>608676.9493290075</v>
+        <v>1110.94803144716</v>
       </c>
       <c r="D144">
-        <v>76.01300000000001</v>
+        <v>76.051</v>
       </c>
       <c r="E144">
-        <v>47.43902677565204</v>
-      </c>
-      <c r="F144">
-        <v>20.647</v>
+        <v>45.37439076018008</v>
       </c>
       <c r="G144">
-        <v>5.627</v>
+        <v>69.133</v>
       </c>
       <c r="H144">
-        <v>69.03700000000001</v>
+        <v>100</v>
       </c>
       <c r="I144">
-        <v>5.211</v>
+        <v>60.176</v>
       </c>
       <c r="J144">
-        <v>5.968180871667525</v>
+        <v>7.982231415218051</v>
       </c>
       <c r="K144">
-        <v>67.27500000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145">
@@ -6003,7 +5976,7 @@
         <v>40.792</v>
       </c>
       <c r="E145">
-        <v>41.83371927232846</v>
+        <v>42.31281225420921</v>
       </c>
       <c r="F145">
         <v>24.594</v>
@@ -6018,7 +5991,7 @@
         <v>40.419</v>
       </c>
       <c r="J145">
-        <v>6.037458609394338</v>
+        <v>6.122303416440997</v>
       </c>
       <c r="K145">
         <v>81.41800000000001</v>
@@ -6144,7 +6117,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6261,7 +6234,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6378,7 +6351,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6531,7 +6504,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6540,37 +6513,37 @@
         </is>
       </c>
       <c r="C159">
-        <v>91284.91497531516</v>
+        <v>705715.5041364761</v>
       </c>
       <c r="D159">
-        <v>37.019</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="E159">
-        <v>37.41029756993509</v>
+        <v>46.32042738309166</v>
       </c>
       <c r="F159">
-        <v>35.398</v>
+        <v>25.375</v>
       </c>
       <c r="G159">
-        <v>48.495</v>
+        <v>12.13</v>
       </c>
       <c r="H159">
-        <v>52.16</v>
+        <v>67.122</v>
       </c>
       <c r="I159">
-        <v>32.225</v>
+        <v>7.78</v>
       </c>
       <c r="J159">
-        <v>5.436633937822409</v>
+        <v>5.788153731572223</v>
       </c>
       <c r="K159">
-        <v>62.121</v>
+        <v>62.441</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6579,31 +6552,28 @@
         </is>
       </c>
       <c r="C160">
-        <v>615432.8145322034</v>
+        <v>1002.225371042404</v>
       </c>
       <c r="D160">
-        <v>74.369</v>
+        <v>73.11499999999999</v>
       </c>
       <c r="E160">
-        <v>47.64630572634986</v>
-      </c>
-      <c r="F160">
-        <v>23.847</v>
+        <v>48.94318887129524</v>
       </c>
       <c r="G160">
-        <v>6.775</v>
+        <v>35.821</v>
       </c>
       <c r="H160">
-        <v>69.246</v>
+        <v>8.936</v>
       </c>
       <c r="I160">
-        <v>4.2</v>
+        <v>35.821</v>
       </c>
       <c r="J160">
-        <v>5.832180923356409</v>
+        <v>0.8065636888976946</v>
       </c>
       <c r="K160">
-        <v>62.549</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
@@ -6624,7 +6594,7 @@
         <v>40.874</v>
       </c>
       <c r="E161">
-        <v>42.0358673436793</v>
+        <v>42.71633487421943</v>
       </c>
       <c r="F161">
         <v>24.798</v>
@@ -6639,7 +6609,7 @@
         <v>39.889</v>
       </c>
       <c r="J161">
-        <v>5.766546613444295</v>
+        <v>5.454940117397035</v>
       </c>
       <c r="K161">
         <v>80.497</v>
